--- a/config_Release/freestyle_nor_qhb_manager_config.xlsx
+++ b/config_Release/freestyle_nor_qhb_manager_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947"/>
   </bookViews>
   <sheets>
     <sheet name="main|总配置" sheetId="1" r:id="rId1"/>
@@ -423,85 +423,15 @@
     <t>|填写value_min=1,value_max=10</t>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
+    <t>28,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
+    <t>28,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
+    <t>10,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +516,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +533,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -637,7 +573,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +647,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -992,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1177,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3">
         <v>3</v>
@@ -1201,7 +1143,7 @@
         <v>10</v>
       </c>
       <c r="L2" s="3">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="M2" s="3">
         <v>10</v>
@@ -1227,7 +1169,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3">
         <v>99999</v>
@@ -1251,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="L3" s="3">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="M3" s="3">
         <v>10</v>
@@ -1277,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="3">
         <v>99999</v>
@@ -1301,7 +1243,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="3">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="M4" s="3">
         <v>10</v>
@@ -1327,7 +1269,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1390,7 +1332,7 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1410,7 +1352,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1454,7 +1396,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1517,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="3">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -1535,7 +1477,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="3">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="E4" s="3">
         <v>4</v>
@@ -1555,7 +1497,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="3">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -1575,7 +1517,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="3">
-        <v>5000000</v>
+        <v>50000000</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1635,10 +1577,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1983,6 +1925,17 @@
       </c>
       <c r="C28" s="3">
         <v>1583035211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1612828800</v>
+      </c>
+      <c r="C29" s="26">
+        <v>1613404799</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -6600,7 +6553,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
